--- a/data/hotels_by_city/Denver/Denver_shard_92.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_92.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33329-d12451374-Reviews-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Fairfield-Inn-And-Suites-Denver-Northeast-Brighton.h18576013.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=7480f861-04ed-4bcd-bab4-e14ae45e84dbHWRQ1523491495562&amp;regionId=178254&amp;vip=false&amp;c=98a7111e-c4a4-4f4d-9201-0e3dbccbd3c3&amp;mctc=9&amp;exp_dp=125.44&amp;exp_ts=1523491503562&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,132 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r596090659-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>12451374</t>
+  </si>
+  <si>
+    <t>596090659</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Great entry point to Colorado</t>
+  </si>
+  <si>
+    <t>We flew in from Europe to Denver airport as start of our family vacation. The hotel was a great start point for our road trip. Nice facilities, pleasant service, fairly close to the airport and on our way to the Rockies</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r593648780-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>593648780</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Awesome!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is clean and beautiful!  We asked for a suite with two queen beds and pull out couch because we were traveling with teenage kids and my mother.  It was a beautiful, spacious room. The beds were very comfortable and the place was exceptionally clean and quiet. Usually I don’t take my shoes off in a hotel room until I get into bed, but this room felt clean enough for me to kick off my shoes at the door. This was one of the best rooms we had on our week-long vacation to Colorado.  Would highly recommend this Fairfield Inn. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r589052941-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>589052941</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Our second stay in a Fairfield Inn and again we were impressed.  Beautiful facility, large room (we had a king suite), large bathroom with great step-in shower, and nice breakfast.  We’ll definitely stay there again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r576060229-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>576060229</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>New and nice.</t>
+  </si>
+  <si>
+    <t>As a relatively new property (opened in Sep. 2017) everything was clean, orderly and functioning (notwithstanding a minor toilet issue, noted below).  The staff was friendly and efficient, though some lobby patrons/guests/locals(?) were trying to get her attention. All the amenities worked and the breakfast food sampling was good, though typical for this type property.1 unusual item was the toilet ran overly long, wasting an unknown amount of water, a precious commodity in this semi-arid region.  The manager was informed on the 2nd day of our stay and I don't know if the issue was addressed after we left the next day.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r567107483-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>567107483</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Nice new hotel!!</t>
+  </si>
+  <si>
+    <t>Was in town for a conference and this hotel was a very nice place to stay! Newer hotel, very nice rooms, and great workout room with views of the mountains. Would stay again if I were in the area. Nice breakfast options.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r559108754-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>559108754</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Really impressed</t>
+  </si>
+  <si>
+    <t>Randomly chose this hotel/city while transiting Denver - and was a little hesitant to stay in such a rural area outside Denver.  Turned out to be a really good stay - plenty of great restaurants and the hotel was really fantastic - bar/restaurant walking distance across the street.  I've actually not seen such a modern designed hotel in quite sometime. USB ports right next to all the plentiful outlets.  New hotel, very nice rooms and super friendly staff.  Has a pool - did not check out the gym though.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
 </sst>
 </file>
@@ -532,11 +664,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +696,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_92.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,123 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r608088749-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>12451374</t>
+  </si>
+  <si>
+    <t>608088749</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Nice stay outside of Denver</t>
+  </si>
+  <si>
+    <t>We were on a road trip and were glad to find this hotel so that we didn't have to fight the afternoon traffic in Denver.  It was nice and clean and what you would expect in a Fairfield.  Movie theater, restaurants and mall (The Orchard) about 15 min. away from here.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r606558312-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>606558312</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>Pretty new hotel, still working out some kinks. Room was pretty clean, lobby was nice, one of the breakfast ladies was fantastic, but her subs were horrible, couldn't keep up with the rush. Elevator had problems the 4 nights we were there--probably another new hotel thing. Overall, good experience, got some things to fix. When I'm working, I don't need to deal with hotel problems, and pretty much everybody at a Fairfield is working.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r605168376-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>605168376</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Your average Fairfield experience</t>
+  </si>
+  <si>
+    <t>A very normal Fairfield experience-- clean, nice lobby, decent wifi. Cell service was horrendous however. Was able to check in a bit early. Not much food options at all around other than fast food and their pantry.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r603708443-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>603708443</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Can't say enough!!!</t>
+  </si>
+  <si>
+    <t>We were supposed to arrive on a red eye flight about 5am, but the flight was delayed about an hour.  We choose to stay this far from the airport because my husband had a company discount.  We called the hotel from the Seattle airport and told them that we would be in very late/early morning.  My husband walked in at 630 and the gentleman said, "You must be Brian.  We have your room ready."  We (family of 4 with two teens) dropped our bags in the room, grabbed a quick breakfast and hit the beds.  We all slept well, and the hotel, although full for the next evening, allowed us to have a 1pm check out.  I would recommend this hotel in an instant.  It is new and modern.  the breakfast area was clean and so were the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>We were supposed to arrive on a red eye flight about 5am, but the flight was delayed about an hour.  We choose to stay this far from the airport because my husband had a company discount.  We called the hotel from the Seattle airport and told them that we would be in very late/early morning.  My husband walked in at 630 and the gentleman said, "You must be Brian.  We have your room ready."  We (family of 4 with two teens) dropped our bags in the room, grabbed a quick breakfast and hit the beds.  We all slept well, and the hotel, although full for the next evening, allowed us to have a 1pm check out.  I would recommend this hotel in an instant.  It is new and modern.  the breakfast area was clean and so were the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r600604870-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>600604870</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Brand New.  Lovely Fairfield Property</t>
+  </si>
+  <si>
+    <t>On our way from KC to Grand Lake, Colorado we stopped here for a one night stop on our way to a family vacation.Brand new facility.  Clean, very nice, and a good breakfast option for family.Very impressed. Great room, very very nice bathroom and super comfortable bedding.Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r598443270-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>598443270</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Worst Sleep Ever</t>
+  </si>
+  <si>
+    <t>Hotel was very clean as was our room which was on the 1st floor.  Unfortunately, we were next to a supposedly maintenance room.  We were awakened 5 times during the night with what sounded like a sledge hammer to our headboard.  Called the front desk twice and she informed us someone was sleeping there and has been for the past eight weeks.  The front desk when we checked out refuted her statement and offered no sympathy for our lack of sleep.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r596090659-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
-    <t>33329</t>
-  </si>
-  <si>
-    <t>12451374</t>
-  </si>
-  <si>
     <t>596090659</t>
   </si>
   <si>
@@ -171,12 +276,6 @@
     <t>We flew in from Europe to Denver airport as start of our family vacation. The hotel was a great start point for our road trip. Nice facilities, pleasant service, fairly close to the airport and on our way to the Rockies</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r593648780-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -213,6 +312,42 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r586783687-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>586783687</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We stopped here after a long day of driving and were very pleasantly surprised not only that they had rooms available at the late hour at which we stopped, but also at the reasonable price we paid. We were put in a suite, which was not expected. The room was quiet, comfortable, well appointed, and provided a treat for us at the end of a long day of travel. We had no issues with the room and everything worked as expected.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r577977103-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>577977103</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>halliburton/ultimate employee</t>
+  </si>
+  <si>
+    <t>fairfield inn and suites living here for 2 weeks on one week off, staff is awesome. macelyn is one of the better employees, she is always happy and fun to talk to. I was introduced to another employee Ashley and she is learning very well and asking her a question she will ask for help or know the answer. I willl be here for awhile and I always look forward to coming back. While housekeeping is awesome/ Minnie is my fav.Thank you for your hospitality and kindness.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r576060229-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -228,9 +363,6 @@
     <t>As a relatively new property (opened in Sep. 2017) everything was clean, orderly and functioning (notwithstanding a minor toilet issue, noted below).  The staff was friendly and efficient, though some lobby patrons/guests/locals(?) were trying to get her attention. All the amenities worked and the breakfast food sampling was good, though typical for this type property.1 unusual item was the toilet ran overly long, wasting an unknown amount of water, a precious commodity in this semi-arid region.  The manager was informed on the 2nd day of our stay and I don't know if the issue was addressed after we left the next day.</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r567107483-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -249,9 +381,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r559108754-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -271,6 +400,57 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r558719775-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>558719775</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>This is a new hotel.  All the furniture and decor are in excellent condition.  Everything is very clean!  We really liked the friendly staff!   Breakfast was good too!  There is free wifi, plenty of free parking, plus the room had a micro &amp; frig too.However, the beds are very firm &amp; the pillows are so overstuffed - it makes them hard to use.  The heating &amp; A/C unit had a mind of it's own - sometimes it would blow cold air when the heat was on &amp; other times the heat wouldn't shut off - making us sweat!There was also a train track very, very, very close to the hotel.The train was loud, sleeping was poor -- but the staff were so kind that I giving them 3 stars instead of lower.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Brad Y, General Manager at Fairfield Inn &amp; Suites Denver Northeast/Brighton, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>This is a new hotel.  All the furniture and decor are in excellent condition.  Everything is very clean!  We really liked the friendly staff!   Breakfast was good too!  There is free wifi, plenty of free parking, plus the room had a micro &amp; frig too.However, the beds are very firm &amp; the pillows are so overstuffed - it makes them hard to use.  The heating &amp; A/C unit had a mind of it's own - sometimes it would blow cold air when the heat was on &amp; other times the heat wouldn't shut off - making us sweat!There was also a train track very, very, very close to the hotel.The train was loud, sleeping was poor -- but the staff were so kind that I giving them 3 stars instead of lower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d12451374-r530490146-Fairfield_Inn_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>530490146</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>All I can say is WOW!  I picked this hotel during a business trip to the Denver area without advanced reservations.  I had a feeling when pulling in it was new and in fact they did just open recently.  Kudos to Marriott for elevating hotels in this category.The technology and beautiful decorating made me feel as if I was in a high end full service hotel.  Staff was great and the manager came out to welcome me personally and recommend places to eat and even offered to show me around the property.Kudos to the nicest place in Brighton to stay and the great staff!  If you are looking to be in Denver without the crazy downtown hustle and bustle this place is literally minutes from the airport without dealing with the traffic.Sorry I did not take pics, but simply beautiful!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>All I can say is WOW!  I picked this hotel during a business trip to the Denver area without advanced reservations.  I had a feeling when pulling in it was new and in fact they did just open recently.  Kudos to Marriott for elevating hotels in this category.The technology and beautiful decorating made me feel as if I was in a high end full service hotel.  Staff was great and the manager came out to welcome me personally and recommend places to eat and even offered to show me around the property.Kudos to the nicest place in Brighton to stay and the great staff!  If you are looking to be in Denver without the crazy downtown hustle and bustle this place is literally minutes from the airport without dealing with the traffic.Sorry I did not take pics, but simply beautiful!!More</t>
   </si>
 </sst>
 </file>
@@ -805,7 +985,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -823,7 +1003,7 @@
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -868,20 +1048,26 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -904,7 +1090,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -913,45 +1099,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -976,45 +1156,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>67</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>68</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>69</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1051,24 +1225,20 @@
         <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1091,7 +1261,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1100,45 +1270,663 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>80</v>
       </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>135</v>
+      </c>
+      <c r="X16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66265</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
